--- a/DataTest/Login.xlsx
+++ b/DataTest/Login.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VTTDung\OneDrive - HUCE\DATN_47265\DATN_Selenium_Java_ThuyDung1\DATN_Selenium_Java_ThuyDung\DataTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D0CDC7-D02B-40C1-B2A8-38244ECCD0D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036A1F47-159B-4942-B565-2B3EA26417DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3750" yWindow="2490" windowWidth="22905" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>function</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>customer@@example..com</t>
+  </si>
+  <si>
+    <t>dungtest@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -395,14 +398,14 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -491,6 +494,17 @@
         <v>123456</v>
       </c>
     </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1">
+        <v>123456</v>
+      </c>
+    </row>
     <row r="11" spans="1:10">
       <c r="J11" s="2"/>
     </row>

--- a/DataTest/Login.xlsx
+++ b/DataTest/Login.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VTTDung\OneDrive - HUCE\DATN_47265\DATN_Selenium_Java_ThuyDung1\DATN_Selenium_Java_ThuyDung\DataTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036A1F47-159B-4942-B565-2B3EA26417DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDE44C6-6D50-48B6-9002-1F474A7AB01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3750" yWindow="2490" windowWidth="22905" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14595" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -398,7 +398,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A2" sqref="A2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/DataTest/Login.xlsx
+++ b/DataTest/Login.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VTTDung\OneDrive - HUCE\DATN_47265\DATN_Selenium_Java_ThuyDung1\DATN_Selenium_Java_ThuyDung\DataTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nuceedu-my.sharepoint.com/personal/dung47265_huce_edu_vn/Documents/DATN_47265/DATN_Selenium_Java_ThuyDung1/DATN_Selenium_Java_ThuyDung/DataTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDE44C6-6D50-48B6-9002-1F474A7AB01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{9CDE44C6-6D50-48B6-9002-1F474A7AB01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C207C140-7371-455A-B88E-F62DB6A849EF}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14595" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -80,10 +80,18 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -106,10 +114,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -120,8 +129,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -398,7 +411,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -454,7 +467,7 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1">
@@ -509,6 +522,9 @@
       <c r="J11" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{A6B8963C-5735-4190-B891-8DD29A822F82}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DataTest/Login.xlsx
+++ b/DataTest/Login.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nuceedu-my.sharepoint.com/personal/dung47265_huce_edu_vn/Documents/DATN_47265/DATN_Selenium_Java_ThuyDung1/DATN_Selenium_Java_ThuyDung/DataTest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATN_Selenium_Java_ThuyDung\DataTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{9CDE44C6-6D50-48B6-9002-1F474A7AB01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C207C140-7371-455A-B88E-F62DB6A849EF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC97338-5B0C-4212-8A38-E23AB4DE39E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="22905" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -118,7 +118,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -132,6 +132,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -411,7 +412,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -518,6 +519,9 @@
         <v>123456</v>
       </c>
     </row>
+    <row r="10" spans="1:10">
+      <c r="B10" s="5"/>
+    </row>
     <row r="11" spans="1:10">
       <c r="J11" s="2"/>
     </row>
